--- a/Patient Sheet_new.xlsx
+++ b/Patient Sheet_new.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
   <si>
     <t>Age</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>DR Predicted (Right)</t>
+  </si>
+  <si>
+    <t>IMG0010L</t>
+  </si>
+  <si>
+    <t>IMG0010R</t>
   </si>
 </sst>
 </file>
@@ -359,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -384,6 +390,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,7 +677,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R16" sqref="R15:R16"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,7 +1134,7 @@
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -1144,11 +1153,11 @@
       <c r="F12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>58</v>
+      <c r="G12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>80</v>
